--- a/docs/cda-logical-model/StructureDefinition-Act.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Act.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -362,7 +366,7 @@
     <t>Act.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -966,42 +970,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1145,13 +1149,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1202,13 +1206,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1217,15 +1221,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1248,7 +1252,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1301,7 +1305,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1321,10 +1325,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1347,7 +1351,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1400,7 +1404,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1420,10 +1424,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1431,10 +1435,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1446,7 +1450,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1499,13 +1503,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1519,10 +1523,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1530,7 +1534,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1545,7 +1549,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1598,10 +1602,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1618,10 +1622,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1629,10 +1633,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1644,11 +1648,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1699,13 +1703,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1719,10 +1723,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1730,10 +1734,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1745,7 +1749,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1798,13 +1802,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1818,10 +1822,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1844,7 +1848,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1873,11 +1877,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1895,7 +1899,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -1915,10 +1919,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1926,7 +1930,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1941,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1994,10 +1998,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2014,10 +2018,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2025,7 +2029,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2040,7 +2044,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2093,10 +2097,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2113,10 +2117,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2124,7 +2128,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2139,7 +2143,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2168,11 +2172,11 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>72</v>
@@ -2190,10 +2194,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2210,10 +2214,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2221,7 +2225,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2236,7 +2240,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2289,10 +2293,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2309,10 +2313,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2320,7 +2324,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2335,7 +2339,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2364,11 +2368,11 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>72</v>
@@ -2386,10 +2390,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2406,10 +2410,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2417,7 +2421,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2432,7 +2436,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2461,32 +2465,32 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2503,10 +2507,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2514,7 +2518,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2529,7 +2533,7 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2582,10 +2586,10 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2594,7 +2598,7 @@
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -2602,10 +2606,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2613,7 +2617,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2628,13 +2632,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2685,10 +2689,10 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -2700,26 +2704,26 @@
         <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2731,16 +2735,16 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2778,42 +2782,42 @@
         <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2836,18 +2840,18 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>72</v>
@@ -2865,11 +2869,11 @@
         <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>72</v>
@@ -2887,7 +2891,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -2907,10 +2911,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2933,18 +2937,18 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>72</v>
@@ -2962,11 +2966,11 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
@@ -2984,7 +2988,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3004,10 +3008,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3015,7 +3019,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3030,7 +3034,7 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3059,32 +3063,32 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
@@ -3101,10 +3105,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3127,7 +3131,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3180,7 +3184,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3200,10 +3204,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3211,10 +3215,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3226,7 +3230,7 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3279,13 +3283,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3299,10 +3303,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3310,10 +3314,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3325,7 +3329,7 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3378,13 +3382,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3398,10 +3402,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3409,10 +3413,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3424,7 +3428,7 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3477,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3497,10 +3501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3508,10 +3512,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3523,7 +3527,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3576,19 +3580,19 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -3596,10 +3600,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3607,7 +3611,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3622,13 +3626,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3679,10 +3683,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3694,26 +3698,26 @@
         <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3725,16 +3729,16 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3772,42 +3776,42 @@
         <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3830,18 +3834,18 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>72</v>
@@ -3859,11 +3863,11 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -3881,7 +3885,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3901,10 +3905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3927,18 +3931,18 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>72</v>
@@ -3956,11 +3960,11 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -3978,7 +3982,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -3998,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4009,7 +4013,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4024,7 +4028,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -4077,10 +4081,10 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4097,10 +4101,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4108,7 +4112,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -4123,7 +4127,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4176,10 +4180,10 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
@@ -4196,10 +4200,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4207,10 +4211,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4222,7 +4226,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4275,13 +4279,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4295,10 +4299,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4306,10 +4310,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4321,7 +4325,7 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4374,19 +4378,19 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>72</v>
@@ -4394,10 +4398,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4405,7 +4409,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -4420,13 +4424,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4477,10 +4481,10 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -4492,26 +4496,26 @@
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4523,16 +4527,16 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -4570,42 +4574,42 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4628,7 +4632,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4681,7 +4685,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -4701,10 +4705,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4712,7 +4716,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4727,7 +4731,7 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4780,10 +4784,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4826,14 +4830,14 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
@@ -4879,7 +4883,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -4899,10 +4903,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4910,7 +4914,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -4925,7 +4929,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4978,10 +4982,10 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -4998,10 +5002,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5009,7 +5013,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5024,7 +5028,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -5077,10 +5081,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5097,10 +5101,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5108,7 +5112,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5123,7 +5127,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -5176,10 +5180,10 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5196,10 +5200,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5207,7 +5211,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5222,7 +5226,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5275,10 +5279,10 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5295,10 +5299,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5306,7 +5310,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5321,7 +5325,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5374,10 +5378,10 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5394,10 +5398,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5405,7 +5409,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5420,7 +5424,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5473,10 +5477,10 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5493,10 +5497,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5504,7 +5508,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5519,7 +5523,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5572,10 +5576,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5592,10 +5596,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5603,7 +5607,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5618,7 +5622,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5671,10 +5675,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5691,10 +5695,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5702,7 +5706,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5717,7 +5721,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5770,10 +5774,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5790,10 +5794,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5801,7 +5805,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5816,7 +5820,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5869,10 +5873,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5889,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5900,7 +5904,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5915,7 +5919,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5968,10 +5972,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -5988,10 +5992,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -5999,7 +6003,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6014,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6067,10 +6071,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6087,10 +6091,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6098,10 +6102,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -6113,7 +6117,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6166,19 +6170,19 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -6186,10 +6190,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6197,7 +6201,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6212,13 +6216,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6269,10 +6273,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6284,26 +6288,26 @@
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -6315,16 +6319,16 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6362,42 +6366,42 @@
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6420,7 +6424,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6473,7 +6477,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -6493,10 +6497,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6504,7 +6508,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6519,7 +6523,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6572,10 +6576,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6592,10 +6596,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6603,7 +6607,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6618,7 +6622,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6671,10 +6675,10 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
@@ -6691,10 +6695,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6702,7 +6706,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -6717,7 +6721,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6770,10 +6774,10 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -6790,10 +6794,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6801,7 +6805,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -6816,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6869,10 +6873,10 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -6889,10 +6893,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6900,7 +6904,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -6915,7 +6919,7 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6968,10 +6972,10 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -6988,10 +6992,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -6999,10 +7003,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -7014,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -7067,13 +7071,13 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-Act.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Act.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
